--- a/data/countries/puerto_rico.xlsx
+++ b/data/countries/puerto_rico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/BlenmanSandbox-CC1407-MEDCCC/AP 2023 Spr/data/countries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7FEC8D-0381-064E-B5E1-B01ABB58C896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB822C4D-8072-5442-A4CF-964ABA46E1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32900" yWindow="840" windowWidth="17980" windowHeight="26320" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>General</t>
   </si>
@@ -113,9 +121,6 @@
     <t>Monthly number of tourists, converted from 1,000s to number</t>
   </si>
   <si>
-    <t>2020 (yearly and monthly)</t>
-  </si>
-  <si>
     <t>inbtou_volume_ov</t>
   </si>
   <si>
@@ -165,6 +170,9 @@
   </si>
   <si>
     <t>https://www.statista.com/statistics/814818/puerto-rico-tourism-revenue/</t>
+  </si>
+  <si>
+    <t>2020-2022 (yearly and monthly)</t>
   </si>
 </sst>
 </file>
@@ -266,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -291,8 +299,6 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -620,7 +626,7 @@
   <dimension ref="B1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -657,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -688,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -723,7 +729,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -731,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -739,7 +745,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -747,7 +753,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -755,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -763,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -774,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -782,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -790,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
@@ -806,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
@@ -814,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
@@ -825,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
@@ -841,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
@@ -849,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
@@ -857,7 +863,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
@@ -865,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +887,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -896,7 +902,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>23</v>
@@ -916,7 +922,7 @@
         <v>2010</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="14">
         <v>5960000000</v>
@@ -936,7 +942,7 @@
         <v>2011</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="14">
         <v>5840000000</v>
@@ -956,7 +962,7 @@
         <v>2012</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="14">
         <v>5820000000</v>
@@ -976,7 +982,7 @@
         <v>2013</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="14">
         <v>5800000000</v>
@@ -1118,8 +1124,8 @@
       <c r="B12" s="12">
         <v>1136400</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>34</v>
+      <c r="C12" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="D12">
         <v>76291</v>
@@ -1133,77 +1139,110 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>196433</v>
+      </c>
+      <c r="E13">
+        <v>1802</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F14" si="0">E13/D13</f>
+        <v>9.17361135858028E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>781515</v>
+      </c>
+      <c r="E14">
+        <v>2236</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2.8611095116536471E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="14"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="14"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="18"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="18"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="14"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="18"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="14"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="18"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="14"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="18"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="14"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="18"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="18"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="14"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="19"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="14"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="18"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="14"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
@@ -1236,7 +1275,7 @@
     <col min="1" max="1" width="10.83203125" style="15"/>
     <col min="2" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1244,7 +1283,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>17</v>
@@ -1269,7 +1308,7 @@
       <c r="D2" s="13">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1286,7 +1325,7 @@
       <c r="D3" s="13">
         <v>0</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1303,7 +1342,7 @@
       <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1320,7 +1359,7 @@
       <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1337,7 +1376,7 @@
       <c r="D6" s="13">
         <v>0</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1354,7 +1393,7 @@
       <c r="D7" s="13">
         <v>0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1371,7 +1410,7 @@
       <c r="D8" s="13">
         <v>0</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1388,7 +1427,7 @@
       <c r="D9" s="13">
         <v>0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1405,7 +1444,7 @@
       <c r="D10" s="13">
         <v>0</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1422,7 +1461,7 @@
       <c r="D11" s="13">
         <v>0</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1439,7 +1478,7 @@
       <c r="D12" s="13">
         <v>0</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1456,7 +1495,7 @@
       <c r="D13" s="13">
         <v>0</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1473,7 +1512,7 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1490,7 +1529,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1507,7 +1546,7 @@
       <c r="D16">
         <v>8</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16">
         <f>D16/C16</f>
         <v>3.3472803347280332E-2</v>
       </c>
@@ -1525,7 +1564,7 @@
       <c r="D17">
         <v>84</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17">
         <f t="shared" ref="E17:E25" si="0">D17/C17</f>
         <v>0.11830985915492957</v>
       </c>
@@ -1543,7 +1582,7 @@
       <c r="D18">
         <v>44</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>0.12979351032448377</v>
       </c>
@@ -1561,7 +1600,7 @@
       <c r="D19">
         <v>17</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>4.1975308641975309E-2</v>
       </c>
@@ -1579,7 +1618,7 @@
       <c r="D20">
         <v>66</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>1.5334572490706321E-2</v>
       </c>
@@ -1597,7 +1636,7 @@
       <c r="D21">
         <v>215</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>2.2681717480746915E-2</v>
       </c>
@@ -1615,7 +1654,7 @@
       <c r="D22">
         <v>227</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>2.6630689816987331E-2</v>
       </c>
@@ -1633,7 +1672,7 @@
       <c r="D23">
         <v>161</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>1.5880844347997632E-2</v>
       </c>
@@ -1651,7 +1690,7 @@
       <c r="D24">
         <v>284</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>1.5428912913565492E-2</v>
       </c>
@@ -1669,7 +1708,7 @@
       <c r="D25">
         <v>397</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>1.6718605238777058E-2</v>
       </c>
@@ -1682,104 +1721,100 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
-      <c r="E28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="18"/>
+      <c r="B29" s="16"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="18"/>
+      <c r="B30" s="16"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31"/>
-      <c r="B31" s="18"/>
-      <c r="E31"/>
+      <c r="B31" s="16"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32"/>
-      <c r="B32" s="18"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="16"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33"/>
-      <c r="B33" s="18"/>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="16"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34"/>
-      <c r="B34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="16"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35"/>
-      <c r="B35" s="18"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="16"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36"/>
-      <c r="B36" s="18"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37"/>
-      <c r="B37" s="18"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="16"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38"/>
-      <c r="B38" s="18"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="16"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39"/>
-      <c r="B39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="16"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40"/>
-      <c r="B40" s="18"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41"/>
-      <c r="B41" s="18"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42"/>
-      <c r="B42" s="18"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43"/>
-      <c r="B43" s="18"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="16"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44"/>
-      <c r="B44" s="18"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45"/>
-      <c r="B45" s="18"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46"/>
-      <c r="B46" s="18"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47"/>
-      <c r="B47" s="18"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="16"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48"/>
-      <c r="B48" s="18"/>
+      <c r="B48" s="16"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49"/>
-      <c r="B49" s="18"/>
+      <c r="B49" s="16"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50"/>
-      <c r="B50" s="18"/>
+      <c r="B50" s="16"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51"/>
-      <c r="B51" s="18"/>
+      <c r="B51" s="16"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52"/>
-      <c r="B52" s="18"/>
+      <c r="B52" s="16"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53"/>
